--- a/docs/PT1/PT1_14.08.2024_output.xlsx
+++ b/docs/PT1/PT1_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2616 +505,3100 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731088589.0948253</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731088589.7740283</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088589.0948253.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088589.7740283.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.04</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.31</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731088590.9940324</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731088591.6127074</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088590.9940324.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088591.6127074.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.17</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.4</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2299999999999613</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731088593.838823</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731088594.4347386</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088593.838823.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088594.4347386.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.15</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>283.19</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.04000000000002046</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731088594.619228</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731088595.2995634</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088594.619228.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088595.2995634.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>282.9</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>282.95</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731088595.4007864</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731088596.1790414</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088595.4007864.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731088596.1790414.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>282.53</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>282.45</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731088597.6835911</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731088598.2531345</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088597.6835911.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088598.2531345.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.04</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.31</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731088599.28257</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731088599.8310869</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088599.28257.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088599.8310869.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>283.17</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2299999999999613</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731088601.8786392</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731088602.448714</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088601.8786392.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088602.448714.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>283.15</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>283.19</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.04000000000002046</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731088602.627844</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731088603.28531</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088602.627844.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088603.28531.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>282.9</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>282.95</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731088603.3850443</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731088604.1260893</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088603.3850443.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088604.1260893.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>282.53</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>282.45</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731088605.6964273</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731088606.4460957</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088605.6964273.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088606.4460957.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>283.91</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>283.88</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.03000000000002956</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731088608.1066651</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731088608.4054754</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088608.1066651.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088608.4054754.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>283.87</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>284.17</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3000000000000114</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731088611.0731995</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731088611.6331701</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088611.0731995.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088611.6331701.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>283.84</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>283.91</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.07000000000005002</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731088611.787049</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731088612.2621765</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088611.787049.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088612.2621765.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>283.7</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>283.75</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731088612.6590738</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731088613.6356366</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088612.6590738.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731088613.6356366.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>283.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>283.42</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.07999999999998408</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731088620.5675998</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731088621.3403115</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088620.5675998.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088621.3403115.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>130.97</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>131.06</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.09000000000000341</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731088621.9637196</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731088622.9137454</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088621.9637196.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731088622.9137454.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>130.76</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>130.86</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731088624.764649</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731088625.3907123</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088624.764649.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088625.3907123.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6462.5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6467.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>5</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731088629.764111</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731088630.4417393</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088629.764111.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731088630.4417393.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6492.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6490</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-2.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731088631.0933862</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731088631.0933862.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+          <t>./test_images/LKOH1731088631.0933862.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6466.5</v>
       </c>
-      <c r="J22" t="n">
-        <v>6466.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="L22" t="n">
+        <v>6461</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731088632.8837664</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731088634.1575027</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088632.8837664.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088634.1575027.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>502.55</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>502.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.3500000000000227</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731088636.5252893</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731088637.0391114</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088636.5252893.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088637.0391114.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>502.55</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>503.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.9499999999999886</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731088638.7951956</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731088639.697943</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088638.7951956.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088639.697943.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>502.75</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>503</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.25</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731088640.1222694</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731088641.0834925</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088640.1222694.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731088641.0834925.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>502.1</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>501.3</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.8000000000000114</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731088652.245253</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731088652.6038861</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088652.245253.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088652.6038861.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1058.2</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1060.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731088656.3719313</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731088657.6645257</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088656.3719313.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088657.6645257.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1062</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1060.2</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.799999999999955</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731088658.574558</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731088658.7320838</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088658.574558.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731088658.7320838.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1057.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1059.2</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731088662.2096598</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731088662.6569302</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088662.2096598.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088662.6569302.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>12.186</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>12.199</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.0129999999999999</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731088665.6901658</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731088666.934811</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088665.6901658.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731088666.934811.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>12.189</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>12.153</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.03599999999999959</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731088679.65467</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731088680.419773</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731088679.65467.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731088680.419773.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>164.8</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>164.92</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.1199999999999761</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731088684.4237854</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731088684.4237854.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+          <t>./test_images/NLMK1731088684.4237854.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>164.82</v>
       </c>
-      <c r="J33" t="n">
-        <v>164.82</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
+      <c r="L33" t="n">
+        <v>164.16</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.6599999999999966</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731088692.7099059</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731088695.0982292</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088692.7099059.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731088695.0982292.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>50.475</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>50.215</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.259999999999998</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731088697.1926625</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731088697.5281863</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088697.1926625.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088697.5281863.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1405.4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1408.2</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731088700.9401445</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731088703.0224502</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088700.9401445.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731088703.0224502.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1406.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1404.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-1.400000000000091</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731088705.6476827</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731088706.4930925</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088705.6476827.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088706.4930925.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>59.67</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>59.71</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731088708.9763854</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731088709.6544297</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088708.9763854.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088709.6544297.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>59.69</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>59.7</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.01000000000000512</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731088709.7191503</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731088709.8734257</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088709.7191503.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088709.8734257.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>59.66</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>59.72</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731088711.5633135</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731088712.3800132</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088711.5633135.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731088712.3800132.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>59.61</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>59.64</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731088715.6585388</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731088716.252376</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088715.6585388.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088716.252376.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>101.05</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>101.29</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731088720.6945217</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731088721.6493685</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088720.6945217.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088721.6493685.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>101.42</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>101.47</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731088722.1027992</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731088723.0326586</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088722.1027992.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731088723.0326586.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>101.21</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>101.19</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731088728.929937</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731088730.812629</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731088728.929937.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731088730.812629.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>57.05</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>56.87</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.1799999999999997</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731088732.5198798</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731088733.2176979</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088732.5198798.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088733.2176979.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>158.48</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>157.98</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731088734.7452824</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731088735.60053</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088734.7452824.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088735.60053.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>158</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>158.1</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731088736.5799606</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731088737.165568</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088736.5799606.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731088737.165568.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>157.6</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>157.72</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731088741.2089896</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731088741.6391244</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731088741.2089896.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731088741.6391244.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>0.3082</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.3098</v>
       </c>
-      <c r="K48" t="n">
-        <v>0.00159999999999999</v>
+      <c r="M48" t="n">
+        <v>0.001600000000000046</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.52</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731088746.4528847</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731088746.4528847.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+          <t>./test_images/MRKP1731088746.4528847.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>0.3095</v>
       </c>
-      <c r="J49" t="n">
-        <v>0.3095</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>0.3093</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.000199999999999978</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731088749.6398728</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731088750.1372263</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731088749.6398728.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731088750.1372263.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>20.82</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>20.882</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.06200000000000117</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731088751.8203173</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731088752.4531987</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731088751.8203173.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731088752.4531987.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>20.84</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>20.85</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.01000000000000156</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731088755.2544699</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731088756.782043</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731088755.2544699.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731088756.782043.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>20.736</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>20.768</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.03200000000000003</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731088761.1484494</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731088761.648096</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731088761.1484494.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731088761.648096.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>691.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>691.95</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.5500000000000682</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731088763.6569211</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731088764.9593403</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731088763.6569211.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731088764.9593403.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>691.95</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>691.45</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731088771.4731698</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731088773.6020322</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731088771.4731698.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731088773.6020322.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>158.36</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>156.71</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-1.650000000000006</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.04</v>
       </c>
     </row>
   </sheetData>
@@ -3113,7 +3612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3137,6 +3636,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3150,6 +3664,15 @@
       <c r="C2" t="n">
         <v>10</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.082000000000005</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3163,6 +3686,15 @@
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.1019999999999982</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3176,6 +3708,15 @@
       <c r="C4" t="n">
         <v>4</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.01249999999998863</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3189,6 +3730,15 @@
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>0.03500000000000192</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3202,6 +3752,15 @@
       <c r="C6" t="n">
         <v>3</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.03466666666666759</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3215,6 +3774,15 @@
       <c r="C7" t="n">
         <v>3</v>
       </c>
+      <c r="D7" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3228,6 +3796,15 @@
       <c r="C8" t="n">
         <v>3</v>
       </c>
+      <c r="D8" t="n">
+        <v>0.09000000000000341</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3241,6 +3818,15 @@
       <c r="C9" t="n">
         <v>3</v>
       </c>
+      <c r="D9" t="n">
+        <v>-0.09333333333333371</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.06</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3249,11 +3835,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.5</v>
+        <v>-3</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
+      <c r="D10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3267,6 +3862,15 @@
       <c r="C11" t="n">
         <v>2</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.02500000000003411</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3275,11 +3879,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1199999999999761</v>
+        <v>-0.5400000000000205</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.2700000000000102</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3288,11 +3901,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00159999999999999</v>
+        <v>0.001400000000000068</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.0007000000000000339</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3306,6 +3928,15 @@
       <c r="C14" t="n">
         <v>2</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.09500000000001307</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3319,6 +3950,15 @@
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>-0.01149999999999984</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3332,6 +3972,15 @@
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.6999999999999318</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3345,6 +3994,15 @@
       <c r="C17" t="n">
         <v>1</v>
       </c>
+      <c r="D17" t="n">
+        <v>-1.650000000000006</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.04</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3358,6 +4016,15 @@
       <c r="C18" t="n">
         <v>1</v>
       </c>
+      <c r="D18" t="n">
+        <v>-0.259999999999998</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3371,6 +4038,15 @@
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>-0.1799999999999997</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.32</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3384,6 +4060,11 @@
       <c r="C20" t="n">
         <v>0</v>
       </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
